--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/89/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/89/FD_Curve.xlsx
@@ -466,10 +466,10 @@
         <v>0.0310005</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11364</v>
+        <v>1.11289</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.64</v>
+        <v>1112.89</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>1.81046</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>1810.46</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.40509</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2405.09</v>
       </c>
     </row>
     <row r="6">
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>2.83067</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>2830.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.22419</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3224.19</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.666399999999999</v>
+        <v>3.49025</v>
       </c>
       <c r="C8" t="n">
-        <v>6666.4</v>
+        <v>3490.25</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.23997</v>
+        <v>3.57446</v>
       </c>
       <c r="C9" t="n">
-        <v>7239.97</v>
+        <v>3574.46</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>7.69649</v>
+        <v>3.57602</v>
       </c>
       <c r="C10" t="n">
-        <v>7696.49</v>
+        <v>3576.02</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>8.062010000000001</v>
+        <v>3.57151</v>
       </c>
       <c r="C11" t="n">
-        <v>8062.01</v>
+        <v>3571.51</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>8.40751</v>
+        <v>3.56617</v>
       </c>
       <c r="C12" t="n">
-        <v>8407.51</v>
+        <v>3566.17</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>8.72941</v>
+        <v>3.56018</v>
       </c>
       <c r="C13" t="n">
-        <v>8729.41</v>
+        <v>3560.18</v>
       </c>
     </row>
     <row r="14">
@@ -587,109 +587,109 @@
         <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>8.99708</v>
+        <v>3.55411</v>
       </c>
       <c r="C14" t="n">
-        <v>8997.08</v>
+        <v>3554.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402587</v>
       </c>
       <c r="B15" t="n">
-        <v>9.212100000000001</v>
+        <v>3.54756</v>
       </c>
       <c r="C15" t="n">
-        <v>9212.1</v>
+        <v>3547.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433512</v>
       </c>
       <c r="B16" t="n">
-        <v>9.41696</v>
+        <v>3.5409</v>
       </c>
       <c r="C16" t="n">
-        <v>9416.959999999999</v>
+        <v>3540.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464437</v>
       </c>
       <c r="B17" t="n">
-        <v>9.595660000000001</v>
+        <v>3.53402</v>
       </c>
       <c r="C17" t="n">
-        <v>9595.66</v>
+        <v>3534.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495362</v>
       </c>
       <c r="B18" t="n">
-        <v>9.74193</v>
+        <v>3.52697</v>
       </c>
       <c r="C18" t="n">
-        <v>9741.93</v>
+        <v>3526.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.5262869999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>9.8742</v>
+        <v>3.5197</v>
       </c>
       <c r="C19" t="n">
-        <v>9874.200000000001</v>
+        <v>3519.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557212</v>
       </c>
       <c r="B20" t="n">
-        <v>9.978850000000001</v>
+        <v>3.51223</v>
       </c>
       <c r="C20" t="n">
-        <v>9978.85</v>
+        <v>3512.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588137</v>
       </c>
       <c r="B21" t="n">
-        <v>10.0709</v>
+        <v>3.50448</v>
       </c>
       <c r="C21" t="n">
-        <v>10070.9</v>
+        <v>3504.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619179</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1217</v>
+        <v>3.49648</v>
       </c>
       <c r="C22" t="n">
-        <v>10121.7</v>
+        <v>3496.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650352</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1656</v>
+        <v>3.48808</v>
       </c>
       <c r="C23" t="n">
-        <v>10165.6</v>
+        <v>3488.08</v>
       </c>
     </row>
     <row r="24">
@@ -697,21 +697,21 @@
         <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1788</v>
+        <v>3.47962</v>
       </c>
       <c r="C24" t="n">
-        <v>10178.8</v>
+        <v>3479.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.7127019999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>10.1766</v>
+        <v>3.47093</v>
       </c>
       <c r="C25" t="n">
-        <v>10176.6</v>
+        <v>3470.93</v>
       </c>
     </row>
     <row r="26">
@@ -719,32 +719,32 @@
         <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>10.1595</v>
+        <v>3.46184</v>
       </c>
       <c r="C26" t="n">
-        <v>10159.5</v>
+        <v>3461.84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775051</v>
       </c>
       <c r="B27" t="n">
-        <v>10.1329</v>
+        <v>3.45249</v>
       </c>
       <c r="C27" t="n">
-        <v>10132.9</v>
+        <v>3452.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.8062240000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>10.1005</v>
+        <v>3.44293</v>
       </c>
       <c r="C28" t="n">
-        <v>10100.5</v>
+        <v>3442.93</v>
       </c>
     </row>
     <row r="29">
@@ -752,32 +752,32 @@
         <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0648</v>
+        <v>3.43319</v>
       </c>
       <c r="C29" t="n">
-        <v>10064.8</v>
+        <v>3433.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868573</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0265</v>
+        <v>3.42327</v>
       </c>
       <c r="C30" t="n">
-        <v>10026.5</v>
+        <v>3423.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899746</v>
       </c>
       <c r="B31" t="n">
-        <v>9.986459999999999</v>
+        <v>3.41309</v>
       </c>
       <c r="C31" t="n">
-        <v>9986.459999999999</v>
+        <v>3413.09</v>
       </c>
     </row>
     <row r="32">
@@ -785,549 +785,549 @@
         <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>9.94481</v>
+        <v>3.40271</v>
       </c>
       <c r="C32" t="n">
-        <v>9944.809999999999</v>
+        <v>3402.71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962095</v>
       </c>
       <c r="B33" t="n">
-        <v>9.902090000000001</v>
+        <v>3.39205</v>
       </c>
       <c r="C33" t="n">
-        <v>9902.09</v>
+        <v>3392.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993268</v>
       </c>
       <c r="B34" t="n">
-        <v>9.85746</v>
+        <v>3.38112</v>
       </c>
       <c r="C34" t="n">
-        <v>9857.459999999999</v>
+        <v>3381.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.0243</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>9.81143</v>
+        <v>3.36988</v>
       </c>
       <c r="C35" t="n">
-        <v>9811.43</v>
+        <v>3369.88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05527</v>
+        <v>1.05595</v>
       </c>
       <c r="B36" t="n">
-        <v>9.76384</v>
+        <v>3.35826</v>
       </c>
       <c r="C36" t="n">
-        <v>9763.84</v>
+        <v>3358.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08624</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>9.71425</v>
+        <v>3.34624</v>
       </c>
       <c r="C37" t="n">
-        <v>9714.25</v>
+        <v>3346.24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11721</v>
+        <v>1.11871</v>
       </c>
       <c r="B38" t="n">
-        <v>9.66173</v>
+        <v>3.33383</v>
       </c>
       <c r="C38" t="n">
-        <v>9661.73</v>
+        <v>3333.83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14818</v>
+        <v>1.15009</v>
       </c>
       <c r="B39" t="n">
-        <v>9.60623</v>
+        <v>3.32108</v>
       </c>
       <c r="C39" t="n">
-        <v>9606.23</v>
+        <v>3321.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17914</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>9.547829999999999</v>
+        <v>3.30796</v>
       </c>
       <c r="C40" t="n">
-        <v>9547.83</v>
+        <v>3307.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21011</v>
+        <v>1.21269</v>
       </c>
       <c r="B41" t="n">
-        <v>9.48676</v>
+        <v>3.29451</v>
       </c>
       <c r="C41" t="n">
-        <v>9486.76</v>
+        <v>3294.51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24108</v>
+        <v>1.2435</v>
       </c>
       <c r="B42" t="n">
-        <v>9.42249</v>
+        <v>3.28078</v>
       </c>
       <c r="C42" t="n">
-        <v>9422.49</v>
+        <v>3280.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27205</v>
+        <v>1.27473</v>
       </c>
       <c r="B43" t="n">
-        <v>9.35486</v>
+        <v>3.26647</v>
       </c>
       <c r="C43" t="n">
-        <v>9354.860000000001</v>
+        <v>3266.47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30302</v>
+        <v>1.3055</v>
       </c>
       <c r="B44" t="n">
-        <v>9.28373</v>
+        <v>3.25195</v>
       </c>
       <c r="C44" t="n">
-        <v>9283.73</v>
+        <v>3251.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33398</v>
+        <v>1.33673</v>
       </c>
       <c r="B45" t="n">
-        <v>9.20913</v>
+        <v>3.23674</v>
       </c>
       <c r="C45" t="n">
-        <v>9209.129999999999</v>
+        <v>3236.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36495</v>
+        <v>1.36755</v>
       </c>
       <c r="B46" t="n">
-        <v>9.13101</v>
+        <v>3.22129</v>
       </c>
       <c r="C46" t="n">
-        <v>9131.01</v>
+        <v>3221.29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39592</v>
+        <v>1.39868</v>
       </c>
       <c r="B47" t="n">
-        <v>9.049290000000001</v>
+        <v>3.20524</v>
       </c>
       <c r="C47" t="n">
-        <v>9049.290000000001</v>
+        <v>3205.24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42669</v>
+        <v>1.42957</v>
       </c>
       <c r="B48" t="n">
-        <v>8.96463</v>
+        <v>3.18886</v>
       </c>
       <c r="C48" t="n">
-        <v>8964.629999999999</v>
+        <v>3188.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45793</v>
+        <v>1.46067</v>
       </c>
       <c r="B49" t="n">
-        <v>8.87556</v>
+        <v>3.17185</v>
       </c>
       <c r="C49" t="n">
-        <v>8875.559999999999</v>
+        <v>3171.85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48872</v>
+        <v>1.49161</v>
       </c>
       <c r="B50" t="n">
-        <v>8.78383</v>
+        <v>3.15444</v>
       </c>
       <c r="C50" t="n">
-        <v>8783.83</v>
+        <v>3154.44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51993</v>
+        <v>1.5227</v>
       </c>
       <c r="B51" t="n">
-        <v>8.687670000000001</v>
+        <v>3.13642</v>
       </c>
       <c r="C51" t="n">
-        <v>8687.67</v>
+        <v>3136.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55066</v>
+        <v>1.55358</v>
       </c>
       <c r="B52" t="n">
-        <v>8.58891</v>
+        <v>3.11791</v>
       </c>
       <c r="C52" t="n">
-        <v>8588.91</v>
+        <v>3117.91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58193</v>
+        <v>1.58467</v>
       </c>
       <c r="B53" t="n">
-        <v>8.48526</v>
+        <v>3.09875</v>
       </c>
       <c r="C53" t="n">
-        <v>8485.26</v>
+        <v>3098.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61274</v>
+        <v>1.61558</v>
       </c>
       <c r="B54" t="n">
-        <v>8.37941</v>
+        <v>3.07913</v>
       </c>
       <c r="C54" t="n">
-        <v>8379.41</v>
+        <v>3079.13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64393</v>
+        <v>1.64672</v>
       </c>
       <c r="B55" t="n">
-        <v>8.268870000000001</v>
+        <v>3.05882</v>
       </c>
       <c r="C55" t="n">
-        <v>8268.870000000001</v>
+        <v>3058.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67472</v>
+        <v>1.6775</v>
       </c>
       <c r="B56" t="n">
-        <v>8.15687</v>
+        <v>3.0381</v>
       </c>
       <c r="C56" t="n">
-        <v>8156.87</v>
+        <v>3038.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70593</v>
+        <v>1.7087</v>
       </c>
       <c r="B57" t="n">
-        <v>8.040800000000001</v>
+        <v>3.01649</v>
       </c>
       <c r="C57" t="n">
-        <v>8040.8</v>
+        <v>3016.49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73679</v>
+        <v>1.7395</v>
       </c>
       <c r="B58" t="n">
-        <v>7.92367</v>
+        <v>2.99465</v>
       </c>
       <c r="C58" t="n">
-        <v>7923.67</v>
+        <v>2994.65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76793</v>
+        <v>1.77075</v>
       </c>
       <c r="B59" t="n">
-        <v>7.8025</v>
+        <v>2.97181</v>
       </c>
       <c r="C59" t="n">
-        <v>7802.5</v>
+        <v>2971.81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79874</v>
+        <v>1.80154</v>
       </c>
       <c r="B60" t="n">
-        <v>7.68105</v>
+        <v>2.94877</v>
       </c>
       <c r="C60" t="n">
-        <v>7681.05</v>
+        <v>2948.77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82994</v>
+        <v>1.8327</v>
       </c>
       <c r="B61" t="n">
-        <v>7.5565</v>
+        <v>2.92492</v>
       </c>
       <c r="C61" t="n">
-        <v>7556.5</v>
+        <v>2924.92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86072</v>
+        <v>1.86356</v>
       </c>
       <c r="B62" t="n">
-        <v>7.432729999999999</v>
+        <v>2.9008</v>
       </c>
       <c r="C62" t="n">
-        <v>7432.73</v>
+        <v>2900.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89199</v>
+        <v>1.89465</v>
       </c>
       <c r="B63" t="n">
-        <v>7.306859999999999</v>
+        <v>2.87613</v>
       </c>
       <c r="C63" t="n">
-        <v>7306.86</v>
+        <v>2876.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92265</v>
+        <v>1.92565</v>
       </c>
       <c r="B64" t="n">
-        <v>7.18372</v>
+        <v>2.85105</v>
       </c>
       <c r="C64" t="n">
-        <v>7183.72</v>
+        <v>2851.05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95401</v>
+        <v>1.95654</v>
       </c>
       <c r="B65" t="n">
-        <v>7.05797</v>
+        <v>2.82564</v>
       </c>
       <c r="C65" t="n">
-        <v>7057.97</v>
+        <v>2825.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98475</v>
+        <v>1.98774</v>
       </c>
       <c r="B66" t="n">
-        <v>6.93565</v>
+        <v>2.79956</v>
       </c>
       <c r="C66" t="n">
-        <v>6935.65</v>
+        <v>2799.56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01601</v>
+        <v>2.01817</v>
       </c>
       <c r="B67" t="n">
-        <v>6.81245</v>
+        <v>2.77354</v>
       </c>
       <c r="C67" t="n">
-        <v>6812.45</v>
+        <v>2773.54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04686</v>
+        <v>2.04946</v>
       </c>
       <c r="B68" t="n">
-        <v>6.69151</v>
+        <v>2.74652</v>
       </c>
       <c r="C68" t="n">
-        <v>6691.51</v>
+        <v>2746.52</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07781</v>
+        <v>2.08025</v>
       </c>
       <c r="B69" t="n">
-        <v>6.57289</v>
+        <v>2.71965</v>
       </c>
       <c r="C69" t="n">
-        <v>6572.89</v>
+        <v>2719.65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10898</v>
+        <v>2.11138</v>
       </c>
       <c r="B70" t="n">
-        <v>6.45445</v>
+        <v>2.6921</v>
       </c>
       <c r="C70" t="n">
-        <v>6454.45</v>
+        <v>2692.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13969</v>
+        <v>2.14233</v>
       </c>
       <c r="B71" t="n">
-        <v>6.34108</v>
+        <v>2.66464</v>
       </c>
       <c r="C71" t="n">
-        <v>6341.08</v>
+        <v>2664.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17094</v>
+        <v>2.17325</v>
       </c>
       <c r="B72" t="n">
-        <v>6.22864</v>
+        <v>2.63702</v>
       </c>
       <c r="C72" t="n">
-        <v>6228.64</v>
+        <v>2637.02</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20193</v>
+        <v>2.20477</v>
       </c>
       <c r="B73" t="n">
-        <v>6.12061</v>
+        <v>2.60882</v>
       </c>
       <c r="C73" t="n">
-        <v>6120.61</v>
+        <v>2608.82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23262</v>
+        <v>2.23517</v>
       </c>
       <c r="B74" t="n">
-        <v>6.01883</v>
+        <v>2.58108</v>
       </c>
       <c r="C74" t="n">
-        <v>6018.83</v>
+        <v>2581.08</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26389</v>
+        <v>2.26667</v>
       </c>
       <c r="B75" t="n">
-        <v>5.91751</v>
+        <v>2.55286</v>
       </c>
       <c r="C75" t="n">
-        <v>5917.51</v>
+        <v>2552.86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29518</v>
+        <v>2.29759</v>
       </c>
       <c r="B76" t="n">
-        <v>5.82146</v>
+        <v>2.52426</v>
       </c>
       <c r="C76" t="n">
-        <v>5821.46</v>
+        <v>2524.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32532</v>
+        <v>2.32831</v>
       </c>
       <c r="B77" t="n">
-        <v>5.7315</v>
+        <v>2.49605</v>
       </c>
       <c r="C77" t="n">
-        <v>5731.5</v>
+        <v>2496.05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35695</v>
+        <v>2.35943</v>
       </c>
       <c r="B78" t="n">
-        <v>5.64319</v>
+        <v>2.46771</v>
       </c>
       <c r="C78" t="n">
-        <v>5643.19</v>
+        <v>2467.71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38822</v>
+        <v>2.39051</v>
       </c>
       <c r="B79" t="n">
-        <v>5.559550000000001</v>
+        <v>2.43876</v>
       </c>
       <c r="C79" t="n">
-        <v>5559.55</v>
+        <v>2438.76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41834</v>
+        <v>2.4216</v>
       </c>
       <c r="B80" t="n">
-        <v>5.479340000000001</v>
+        <v>2.41021</v>
       </c>
       <c r="C80" t="n">
-        <v>5479.34</v>
+        <v>2410.21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4501</v>
+        <v>2.45221</v>
       </c>
       <c r="B81" t="n">
-        <v>5.40011</v>
+        <v>2.38213</v>
       </c>
       <c r="C81" t="n">
-        <v>5400.11</v>
+        <v>2382.13</v>
       </c>
     </row>
     <row r="82">
@@ -1335,230 +1335,230 @@
         <v>2.48147</v>
       </c>
       <c r="B82" t="n">
-        <v>5.32496</v>
+        <v>2.35466</v>
       </c>
       <c r="C82" t="n">
-        <v>5324.96</v>
+        <v>2354.66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51187</v>
+        <v>2.51185</v>
       </c>
       <c r="B83" t="n">
-        <v>5.25432</v>
+        <v>2.32681</v>
       </c>
       <c r="C83" t="n">
-        <v>5254.32</v>
+        <v>2326.81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54227</v>
+        <v>2.54538</v>
       </c>
       <c r="B84" t="n">
-        <v>5.186439999999999</v>
+        <v>2.29629</v>
       </c>
       <c r="C84" t="n">
-        <v>5186.44</v>
+        <v>2296.29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57228</v>
+        <v>2.57738</v>
       </c>
       <c r="B85" t="n">
-        <v>5.12244</v>
+        <v>2.26649</v>
       </c>
       <c r="C85" t="n">
-        <v>5122.44</v>
+        <v>2266.49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.6014</v>
+        <v>2.60938</v>
       </c>
       <c r="B86" t="n">
-        <v>5.06024</v>
+        <v>2.23686</v>
       </c>
       <c r="C86" t="n">
-        <v>5060.24</v>
+        <v>2236.86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63344</v>
+        <v>2.64138</v>
       </c>
       <c r="B87" t="n">
-        <v>5.02617</v>
+        <v>2.20784</v>
       </c>
       <c r="C87" t="n">
-        <v>5026.17</v>
+        <v>2207.84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66499</v>
+        <v>2.67208</v>
       </c>
       <c r="B88" t="n">
-        <v>5.01433</v>
+        <v>2.1795</v>
       </c>
       <c r="C88" t="n">
-        <v>5014.33</v>
+        <v>2179.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69485</v>
+        <v>2.70194</v>
       </c>
       <c r="B89" t="n">
-        <v>5.00152</v>
+        <v>2.15193</v>
       </c>
       <c r="C89" t="n">
-        <v>5001.52</v>
+        <v>2151.93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72472</v>
+        <v>2.73181</v>
       </c>
       <c r="B90" t="n">
-        <v>4.99089</v>
+        <v>2.12475</v>
       </c>
       <c r="C90" t="n">
-        <v>4990.89</v>
+        <v>2124.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75459</v>
+        <v>2.76168</v>
       </c>
       <c r="B91" t="n">
-        <v>4.97324</v>
+        <v>2.09781</v>
       </c>
       <c r="C91" t="n">
-        <v>4973.24</v>
+        <v>2097.81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78445</v>
+        <v>2.79059</v>
       </c>
       <c r="B92" t="n">
-        <v>4.95101</v>
+        <v>2.07172</v>
       </c>
       <c r="C92" t="n">
-        <v>4951.01</v>
+        <v>2071.72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81329</v>
+        <v>2.82172</v>
       </c>
       <c r="B93" t="n">
-        <v>4.932939999999999</v>
+        <v>2.04277</v>
       </c>
       <c r="C93" t="n">
-        <v>4932.94</v>
+        <v>2042.77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84142</v>
+        <v>2.855</v>
       </c>
       <c r="B94" t="n">
-        <v>4.91653</v>
+        <v>2.01269</v>
       </c>
       <c r="C94" t="n">
-        <v>4916.53</v>
+        <v>2012.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8747</v>
+        <v>2.88828</v>
       </c>
       <c r="B95" t="n">
-        <v>4.894439999999999</v>
+        <v>1.98334</v>
       </c>
       <c r="C95" t="n">
-        <v>4894.44</v>
+        <v>1983.34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90798</v>
+        <v>2.92128</v>
       </c>
       <c r="B96" t="n">
-        <v>4.865460000000001</v>
+        <v>1.95463</v>
       </c>
       <c r="C96" t="n">
-        <v>4865.46</v>
+        <v>1954.63</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94126</v>
+        <v>2.952</v>
       </c>
       <c r="B97" t="n">
-        <v>4.85184</v>
+        <v>1.92633</v>
       </c>
       <c r="C97" t="n">
-        <v>4851.84</v>
+        <v>1926.33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97454</v>
+        <v>2.98272</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81462</v>
+        <v>1.89861</v>
       </c>
       <c r="C98" t="n">
-        <v>4814.62</v>
+        <v>1898.61</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0072</v>
+        <v>3.01344</v>
       </c>
       <c r="B99" t="n">
-        <v>4.79536</v>
+        <v>1.87185</v>
       </c>
       <c r="C99" t="n">
-        <v>4795.36</v>
+        <v>1871.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03792</v>
+        <v>3.04416</v>
       </c>
       <c r="B100" t="n">
-        <v>4.77533</v>
+        <v>1.8458</v>
       </c>
       <c r="C100" t="n">
-        <v>4775.33</v>
+        <v>1845.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06864</v>
+        <v>3.07488</v>
       </c>
       <c r="B101" t="n">
-        <v>4.74495</v>
+        <v>1.82003</v>
       </c>
       <c r="C101" t="n">
-        <v>4744.95</v>
+        <v>1820.03</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09936</v>
+        <v>3.10333</v>
       </c>
       <c r="B102" t="n">
-        <v>4.71713</v>
+        <v>1.79483</v>
       </c>
       <c r="C102" t="n">
-        <v>4717.13</v>
+        <v>1794.83</v>
       </c>
     </row>
   </sheetData>
